--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1508755.734965199</v>
+        <v>1506379.108017833</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10641338.18668955</v>
+        <v>10641338.18668956</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>284.0788930262595</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>103.0644778327132</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,13 +826,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>20.41814882265045</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>43.30112502764958</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>69.57567738406057</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>85.85550327421053</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>141.603830857203</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>38.14210214632624</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>224.7543248662169</v>
+        <v>227.7569603098099</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>20.92847288552921</v>
       </c>
       <c r="S13" t="n">
-        <v>105.6507867899574</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>93.62264337260697</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186426</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365925</v>
       </c>
       <c r="X19" t="n">
-        <v>193.9962538432431</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.8107367464748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788178581</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.4288002907009</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788180832</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>75.21356227238219</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>86.24032515900284</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,10 +4189,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>220.6346102953139</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>31.40247677522967</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218651</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218651</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
-        <v>559.7504193151146</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>173.9621667168704</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0166659676669</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>155.3523197323599</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4364,16 +4364,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>624.4949571199844</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>474.3783177076486</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>326.4652241252555</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.86271359008</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>793.4311400478913</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>603.6036480119274</v>
+        <v>1890.972649740754</v>
       </c>
       <c r="C5" t="n">
-        <v>603.6036480119274</v>
+        <v>1522.010132800342</v>
       </c>
       <c r="D5" t="n">
-        <v>603.6036480119274</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E5" t="n">
-        <v>603.6036480119274</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2475.616597820145</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2222.035537084324</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>1890.972649740754</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>1890.972649740754</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.342820051861</v>
+        <v>1890.972649740754</v>
       </c>
       <c r="Y5" t="n">
-        <v>990.2034880760491</v>
+        <v>1890.972649740754</v>
       </c>
     </row>
     <row r="6">
@@ -4626,46 +4626,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>940.7932119894607</v>
+        <v>828.2101936809108</v>
       </c>
       <c r="C7" t="n">
-        <v>771.8570290615538</v>
+        <v>659.2740107530039</v>
       </c>
       <c r="D7" t="n">
-        <v>621.7403896492181</v>
+        <v>509.1573713406682</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>509.1573713406682</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>362.2674238427578</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>194.2809591510364</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W7" t="n">
-        <v>1381.76163186861</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="X7" t="n">
-        <v>1343.23425596323</v>
+        <v>828.2101936809108</v>
       </c>
       <c r="Y7" t="n">
-        <v>1122.4416768197</v>
+        <v>828.2101936809108</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1802.273730074953</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C8" t="n">
-        <v>1433.311213134542</v>
+        <v>1806.776971395621</v>
       </c>
       <c r="D8" t="n">
-        <v>1075.045514527791</v>
+        <v>1448.511272788871</v>
       </c>
       <c r="E8" t="n">
-        <v>689.257261929547</v>
+        <v>1062.723020190627</v>
       </c>
       <c r="F8" t="n">
-        <v>278.2713571399394</v>
+        <v>651.7371154010191</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4844,10 +4844,10 @@
         <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139075</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>2188.873570139075</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4869,10 +4869,10 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4920,7 +4920,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4996,16 +4996,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5121,19 +5121,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.823211978716</v>
       </c>
       <c r="S13" t="n">
-        <v>2273.199413378161</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,13 +5288,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5701,19 +5701,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>2191.112710026076</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1936.428221820189</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1198.22892174168</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
         <v>1198.22892174168</v>
@@ -5732,43 +5732,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>639.6425904082687</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>821.2910552385084</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,52 +6449,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797758</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6889,7 +6889,7 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
         <v>1491.508541327549</v>
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,13 +6956,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>633.9926444679666</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>483.8760050556308</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
         <v>407.9027098310023</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7391,34 +7391,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>808.8888553856848</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>639.9526724577779</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>489.8360330454422</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359455</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.5373202159245</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.913349582082</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.496179545122</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>982.5066286471044</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589387</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>138.9393975111056</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>45.44677382459095</v>
       </c>
       <c r="S13" t="n">
-        <v>75.37549921168723</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>73.62417772602086</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>32.89260457060155</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>31.71340154579403</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194311</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194351</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.15585306139386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>61.35027805667497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194085</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>71.22040037418698</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>60.19363748756633</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>220.7351665485983</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914749.3082663927</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663927</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663927</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651769</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651771</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="M2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062538</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719668</v>
@@ -26430,22 +26430,22 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171967</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26454,10 +26454,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-827652.3133973317</v>
+        <v>-827652.3133973315</v>
       </c>
       <c r="C6" t="n">
-        <v>287099.4701785881</v>
+        <v>287099.4701785876</v>
       </c>
       <c r="D6" t="n">
         <v>287099.4701785883</v>
       </c>
       <c r="E6" t="n">
-        <v>-111648.7151039191</v>
+        <v>-111683.4530293549</v>
       </c>
       <c r="F6" t="n">
-        <v>395836.726520627</v>
+        <v>395801.988595191</v>
       </c>
       <c r="G6" t="n">
-        <v>395836.7265206269</v>
+        <v>395801.9885951915</v>
       </c>
       <c r="H6" t="n">
-        <v>395836.726520627</v>
+        <v>395801.9885951912</v>
       </c>
       <c r="I6" t="n">
-        <v>395836.7265206268</v>
+        <v>395801.9885951912</v>
       </c>
       <c r="J6" t="n">
-        <v>228231.5487106445</v>
+        <v>228196.8107852087</v>
       </c>
       <c r="K6" t="n">
-        <v>395836.726520627</v>
+        <v>395801.9885951911</v>
       </c>
       <c r="L6" t="n">
-        <v>395836.7265206269</v>
+        <v>395801.9885951913</v>
       </c>
       <c r="M6" t="n">
-        <v>263229.4327917</v>
+        <v>263194.6948662644</v>
       </c>
       <c r="N6" t="n">
-        <v>395836.7265206269</v>
+        <v>395801.9885951912</v>
       </c>
       <c r="O6" t="n">
-        <v>395836.7265206267</v>
+        <v>395801.9885951913</v>
       </c>
       <c r="P6" t="n">
-        <v>395836.726520627</v>
+        <v>395801.9885951913</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>81.19399874474806</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>197.9540747296922</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>125.0028992002808</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>182.4085303613876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>337.3003683576509</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>120.8026817060232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>5.647678297925893</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>187.5675532427109</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>186.793377906737</v>
+        <v>183.7907424631441</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28068,7 +28068,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546876</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.571301715478522e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226597</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>553.380344896426</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>280.0487856294262</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35024,19 +35024,19 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>590.9487307432805</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>505.870729793146</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>318.5044627483007</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35902,10 +35902,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394655</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191328</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37084,13 +37084,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
